--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46023</v>
+        <v>46388</v>
       </c>
       <c r="C2" t="n">
         <v>19.2</v>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46024</v>
+        <v>46389</v>
       </c>
       <c r="C3" t="n">
         <v>18.3</v>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46025</v>
+        <v>46390</v>
       </c>
       <c r="C4" t="n">
         <v>17.8</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46026</v>
+        <v>46391</v>
       </c>
       <c r="C5" t="n">
         <v>18</v>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>46027</v>
+        <v>46392</v>
       </c>
       <c r="C6" t="n">
         <v>18.5</v>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>46028</v>
+        <v>46393</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>46029</v>
+        <v>46394</v>
       </c>
       <c r="C8" t="n">
         <v>17.8</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>46030</v>
+        <v>46395</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>46031</v>
+        <v>46396</v>
       </c>
       <c r="C10" t="n">
         <v>18.3</v>
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>46032</v>
+        <v>46397</v>
       </c>
       <c r="C11" t="n">
         <v>18.6</v>
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>46033</v>
+        <v>46398</v>
       </c>
       <c r="C12" t="n">
         <v>19.4</v>
@@ -765,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>46034</v>
+        <v>46399</v>
       </c>
       <c r="C13" t="n">
         <v>20.1</v>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>46035</v>
+        <v>46400</v>
       </c>
       <c r="C14" t="n">
         <v>20.4</v>
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>46036</v>
+        <v>46401</v>
       </c>
       <c r="C15" t="n">
         <v>20</v>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46037</v>
+        <v>46402</v>
       </c>
       <c r="C16" t="n">
         <v>19.9</v>
@@ -869,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>46038</v>
+        <v>46403</v>
       </c>
       <c r="C17" t="n">
         <v>19.7</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>46039</v>
+        <v>46404</v>
       </c>
       <c r="C18" t="n">
         <v>19.3</v>
@@ -921,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>46040</v>
+        <v>46405</v>
       </c>
       <c r="C19" t="n">
         <v>19.7</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>46041</v>
+        <v>46406</v>
       </c>
       <c r="C20" t="n">
         <v>19.9</v>
@@ -973,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>46042</v>
+        <v>46407</v>
       </c>
       <c r="C21" t="n">
         <v>19.7</v>
@@ -999,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>46043</v>
+        <v>46408</v>
       </c>
       <c r="C22" t="n">
         <v>19.5</v>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>46044</v>
+        <v>46409</v>
       </c>
       <c r="C23" t="n">
         <v>19.7</v>
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>46045</v>
+        <v>46410</v>
       </c>
       <c r="C24" t="n">
         <v>20.5</v>
@@ -1077,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>46046</v>
+        <v>46411</v>
       </c>
       <c r="C25" t="n">
         <v>20.3</v>
@@ -1103,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>46047</v>
+        <v>46412</v>
       </c>
       <c r="C26" t="n">
         <v>20.6</v>
@@ -1129,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>46048</v>
+        <v>46413</v>
       </c>
       <c r="C27" t="n">
         <v>21</v>
@@ -1155,7 +1155,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>46049</v>
+        <v>46414</v>
       </c>
       <c r="C28" t="n">
         <v>21.2</v>
@@ -1181,7 +1181,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>46050</v>
+        <v>46415</v>
       </c>
       <c r="C29" t="n">
         <v>21</v>
@@ -1207,7 +1207,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>46051</v>
+        <v>46416</v>
       </c>
       <c r="C30" t="n">
         <v>22.4</v>
@@ -1233,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>46052</v>
+        <v>46417</v>
       </c>
       <c r="C31" t="n">
         <v>22.2</v>
@@ -1259,7 +1259,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>46053</v>
+        <v>46418</v>
       </c>
       <c r="C32" t="n">
         <v>21.6</v>
@@ -1285,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>46054</v>
+        <v>46419</v>
       </c>
       <c r="C33" t="n">
         <v>21.7</v>
@@ -1311,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>46055</v>
+        <v>46420</v>
       </c>
       <c r="C34" t="n">
         <v>22.1</v>
@@ -1337,7 +1337,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>46056</v>
+        <v>46421</v>
       </c>
       <c r="C35" t="n">
         <v>23</v>
@@ -1363,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>46057</v>
+        <v>46422</v>
       </c>
       <c r="C36" t="n">
         <v>23.1</v>
@@ -1389,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>46058</v>
+        <v>46423</v>
       </c>
       <c r="C37" t="n">
         <v>22.7</v>
@@ -1415,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>46059</v>
+        <v>46424</v>
       </c>
       <c r="C38" t="n">
         <v>23.4</v>
@@ -1441,7 +1441,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>46060</v>
+        <v>46425</v>
       </c>
       <c r="C39" t="n">
         <v>22.9</v>
@@ -1467,7 +1467,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>46061</v>
+        <v>46426</v>
       </c>
       <c r="C40" t="n">
         <v>21.8</v>
@@ -1493,7 +1493,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>46062</v>
+        <v>46427</v>
       </c>
       <c r="C41" t="n">
         <v>22.4</v>
@@ -1519,7 +1519,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>46063</v>
+        <v>46428</v>
       </c>
       <c r="C42" t="n">
         <v>22.4</v>
@@ -1545,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>46064</v>
+        <v>46429</v>
       </c>
       <c r="C43" t="n">
         <v>22.6</v>
@@ -1571,7 +1571,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>46065</v>
+        <v>46430</v>
       </c>
       <c r="C44" t="n">
         <v>23.7</v>
@@ -1597,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>46066</v>
+        <v>46431</v>
       </c>
       <c r="C45" t="n">
         <v>24.3</v>
@@ -1623,7 +1623,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>46067</v>
+        <v>46432</v>
       </c>
       <c r="C46" t="n">
         <v>23.6</v>
@@ -1649,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>46068</v>
+        <v>46433</v>
       </c>
       <c r="C47" t="n">
         <v>23.3</v>
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>46069</v>
+        <v>46434</v>
       </c>
       <c r="C48" t="n">
         <v>23.8</v>
@@ -1701,7 +1701,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>46070</v>
+        <v>46435</v>
       </c>
       <c r="C49" t="n">
         <v>24.1</v>
@@ -1727,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>46071</v>
+        <v>46436</v>
       </c>
       <c r="C50" t="n">
         <v>24.9</v>
@@ -1753,7 +1753,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>46072</v>
+        <v>46437</v>
       </c>
       <c r="C51" t="n">
         <v>25.8</v>
@@ -1779,7 +1779,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>46073</v>
+        <v>46438</v>
       </c>
       <c r="C52" t="n">
         <v>25.9</v>
@@ -1805,7 +1805,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>46074</v>
+        <v>46439</v>
       </c>
       <c r="C53" t="n">
         <v>26.4</v>
@@ -1831,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>46075</v>
+        <v>46440</v>
       </c>
       <c r="C54" t="n">
         <v>26.5</v>
@@ -1857,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>46076</v>
+        <v>46441</v>
       </c>
       <c r="C55" t="n">
         <v>26.3</v>
@@ -1883,7 +1883,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>46077</v>
+        <v>46442</v>
       </c>
       <c r="C56" t="n">
         <v>26.4</v>
@@ -1909,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>46078</v>
+        <v>46443</v>
       </c>
       <c r="C57" t="n">
         <v>26.2</v>
@@ -1935,7 +1935,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>46079</v>
+        <v>46444</v>
       </c>
       <c r="C58" t="n">
         <v>26.1</v>
@@ -1961,7 +1961,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>46080</v>
+        <v>46445</v>
       </c>
       <c r="C59" t="n">
         <v>26.9</v>
@@ -1987,7 +1987,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>46081</v>
+        <v>46446</v>
       </c>
       <c r="C60" t="n">
         <v>27.1</v>
@@ -2013,7 +2013,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>46082</v>
+        <v>46447</v>
       </c>
       <c r="C61" t="n">
         <v>27.3</v>
@@ -2039,7 +2039,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>46083</v>
+        <v>46448</v>
       </c>
       <c r="C62" t="n">
         <v>27.1</v>
@@ -2065,7 +2065,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>46084</v>
+        <v>46449</v>
       </c>
       <c r="C63" t="n">
         <v>27.8</v>
@@ -2091,7 +2091,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>46085</v>
+        <v>46450</v>
       </c>
       <c r="C64" t="n">
         <v>28.1</v>
@@ -2117,7 +2117,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>46086</v>
+        <v>46451</v>
       </c>
       <c r="C65" t="n">
         <v>28.3</v>
@@ -2143,7 +2143,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>46087</v>
+        <v>46452</v>
       </c>
       <c r="C66" t="n">
         <v>28.4</v>
@@ -2169,7 +2169,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>46088</v>
+        <v>46453</v>
       </c>
       <c r="C67" t="n">
         <v>28.9</v>
@@ -2195,7 +2195,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>46089</v>
+        <v>46454</v>
       </c>
       <c r="C68" t="n">
         <v>28.5</v>
@@ -2221,7 +2221,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>46090</v>
+        <v>46455</v>
       </c>
       <c r="C69" t="n">
         <v>28.3</v>
@@ -2247,7 +2247,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>46091</v>
+        <v>46456</v>
       </c>
       <c r="C70" t="n">
         <v>28</v>
@@ -2273,7 +2273,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>46092</v>
+        <v>46457</v>
       </c>
       <c r="C71" t="n">
         <v>28.3</v>
@@ -2299,7 +2299,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>46093</v>
+        <v>46458</v>
       </c>
       <c r="C72" t="n">
         <v>28.7</v>
@@ -2325,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>46094</v>
+        <v>46459</v>
       </c>
       <c r="C73" t="n">
         <v>28.8</v>
@@ -2351,7 +2351,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>46095</v>
+        <v>46460</v>
       </c>
       <c r="C74" t="n">
         <v>28.2</v>
@@ -2377,7 +2377,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>46096</v>
+        <v>46461</v>
       </c>
       <c r="C75" t="n">
         <v>29.3</v>
@@ -2403,7 +2403,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>46097</v>
+        <v>46462</v>
       </c>
       <c r="C76" t="n">
         <v>30.5</v>
@@ -2429,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>46098</v>
+        <v>46463</v>
       </c>
       <c r="C77" t="n">
         <v>31.8</v>
@@ -2455,7 +2455,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>46099</v>
+        <v>46464</v>
       </c>
       <c r="C78" t="n">
         <v>31.9</v>
@@ -2481,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>46100</v>
+        <v>46465</v>
       </c>
       <c r="C79" t="n">
         <v>32.5</v>
@@ -2507,7 +2507,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>46101</v>
+        <v>46466</v>
       </c>
       <c r="C80" t="n">
         <v>32.7</v>
@@ -2533,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>46102</v>
+        <v>46467</v>
       </c>
       <c r="C81" t="n">
         <v>31.8</v>
@@ -2559,7 +2559,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>46103</v>
+        <v>46468</v>
       </c>
       <c r="C82" t="n">
         <v>32</v>
@@ -2585,7 +2585,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>46104</v>
+        <v>46469</v>
       </c>
       <c r="C83" t="n">
         <v>32.6</v>
@@ -2611,7 +2611,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>46105</v>
+        <v>46470</v>
       </c>
       <c r="C84" t="n">
         <v>33.1</v>
@@ -2637,7 +2637,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>46106</v>
+        <v>46471</v>
       </c>
       <c r="C85" t="n">
         <v>32.6</v>
@@ -2663,7 +2663,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>46107</v>
+        <v>46472</v>
       </c>
       <c r="C86" t="n">
         <v>32.7</v>
@@ -2689,7 +2689,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>46108</v>
+        <v>46473</v>
       </c>
       <c r="C87" t="n">
         <v>33.4</v>
@@ -2715,7 +2715,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>46109</v>
+        <v>46474</v>
       </c>
       <c r="C88" t="n">
         <v>34.2</v>
@@ -2741,7 +2741,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>46110</v>
+        <v>46475</v>
       </c>
       <c r="C89" t="n">
         <v>33.9</v>
@@ -2767,7 +2767,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>46111</v>
+        <v>46476</v>
       </c>
       <c r="C90" t="n">
         <v>34.3</v>
@@ -2793,7 +2793,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="C91" t="n">
         <v>34.9</v>
@@ -2819,7 +2819,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>46113</v>
+        <v>46478</v>
       </c>
       <c r="C92" t="n">
         <v>35.1</v>
@@ -2845,7 +2845,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>46114</v>
+        <v>46479</v>
       </c>
       <c r="C93" t="n">
         <v>35.6</v>
@@ -2871,7 +2871,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>46115</v>
+        <v>46480</v>
       </c>
       <c r="C94" t="n">
         <v>35</v>
@@ -2897,7 +2897,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>46116</v>
+        <v>46481</v>
       </c>
       <c r="C95" t="n">
         <v>35.2</v>
@@ -2923,7 +2923,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>46117</v>
+        <v>46482</v>
       </c>
       <c r="C96" t="n">
         <v>36</v>
@@ -2949,7 +2949,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>46118</v>
+        <v>46483</v>
       </c>
       <c r="C97" t="n">
         <v>36.3</v>
@@ -2975,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>46119</v>
+        <v>46484</v>
       </c>
       <c r="C98" t="n">
         <v>35.9</v>
@@ -3001,7 +3001,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>46120</v>
+        <v>46485</v>
       </c>
       <c r="C99" t="n">
         <v>35.7</v>
@@ -3027,7 +3027,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>46121</v>
+        <v>46486</v>
       </c>
       <c r="C100" t="n">
         <v>35.8</v>
@@ -3053,7 +3053,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>46122</v>
+        <v>46487</v>
       </c>
       <c r="C101" t="n">
         <v>36.3</v>
@@ -3079,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>46123</v>
+        <v>46488</v>
       </c>
       <c r="C102" t="n">
         <v>36.9</v>
@@ -3105,7 +3105,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>46124</v>
+        <v>46489</v>
       </c>
       <c r="C103" t="n">
         <v>36.6</v>
@@ -3131,7 +3131,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>46125</v>
+        <v>46490</v>
       </c>
       <c r="C104" t="n">
         <v>37</v>
@@ -3157,7 +3157,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>46126</v>
+        <v>46491</v>
       </c>
       <c r="C105" t="n">
         <v>37.6</v>
@@ -3183,7 +3183,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>46127</v>
+        <v>46492</v>
       </c>
       <c r="C106" t="n">
         <v>38.1</v>
@@ -3209,7 +3209,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>46128</v>
+        <v>46493</v>
       </c>
       <c r="C107" t="n">
         <v>37.8</v>
@@ -3235,7 +3235,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>46129</v>
+        <v>46494</v>
       </c>
       <c r="C108" t="n">
         <v>37.1</v>
@@ -3261,7 +3261,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>46130</v>
+        <v>46495</v>
       </c>
       <c r="C109" t="n">
         <v>36.9</v>
@@ -3287,7 +3287,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>46131</v>
+        <v>46496</v>
       </c>
       <c r="C110" t="n">
         <v>38.3</v>
@@ -3313,7 +3313,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>46132</v>
+        <v>46497</v>
       </c>
       <c r="C111" t="n">
         <v>38.7</v>
@@ -3339,7 +3339,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>46133</v>
+        <v>46498</v>
       </c>
       <c r="C112" t="n">
         <v>38.2</v>
@@ -3365,7 +3365,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>46134</v>
+        <v>46499</v>
       </c>
       <c r="C113" t="n">
         <v>38.4</v>
@@ -3391,7 +3391,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>46135</v>
+        <v>46500</v>
       </c>
       <c r="C114" t="n">
         <v>38.5</v>
@@ -3417,7 +3417,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>46136</v>
+        <v>46501</v>
       </c>
       <c r="C115" t="n">
         <v>39</v>
@@ -3443,7 +3443,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>46137</v>
+        <v>46502</v>
       </c>
       <c r="C116" t="n">
         <v>39.6</v>
@@ -3469,7 +3469,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>46138</v>
+        <v>46503</v>
       </c>
       <c r="C117" t="n">
         <v>38.8</v>
@@ -3495,7 +3495,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>46139</v>
+        <v>46504</v>
       </c>
       <c r="C118" t="n">
         <v>39.5</v>
@@ -3521,7 +3521,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>46140</v>
+        <v>46505</v>
       </c>
       <c r="C119" t="n">
         <v>39.6</v>
@@ -3547,7 +3547,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>46141</v>
+        <v>46506</v>
       </c>
       <c r="C120" t="n">
         <v>40.2</v>
@@ -3573,7 +3573,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>46142</v>
+        <v>46507</v>
       </c>
       <c r="C121" t="n">
         <v>40.3</v>
@@ -3599,7 +3599,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>46143</v>
+        <v>46508</v>
       </c>
       <c r="C122" t="n">
         <v>39.9</v>
@@ -3625,7 +3625,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>46144</v>
+        <v>46509</v>
       </c>
       <c r="C123" t="n">
         <v>39.3</v>
@@ -3651,7 +3651,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>46145</v>
+        <v>46510</v>
       </c>
       <c r="C124" t="n">
         <v>39.1</v>
@@ -3677,7 +3677,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>46146</v>
+        <v>46511</v>
       </c>
       <c r="C125" t="n">
         <v>39.4</v>
@@ -3703,7 +3703,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>46147</v>
+        <v>46512</v>
       </c>
       <c r="C126" t="n">
         <v>39.4</v>
@@ -3729,7 +3729,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>46148</v>
+        <v>46513</v>
       </c>
       <c r="C127" t="n">
         <v>39.8</v>
@@ -3755,7 +3755,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>46149</v>
+        <v>46514</v>
       </c>
       <c r="C128" t="n">
         <v>39.6</v>
@@ -3781,7 +3781,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>46150</v>
+        <v>46515</v>
       </c>
       <c r="C129" t="n">
         <v>40.2</v>
@@ -3807,7 +3807,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>46151</v>
+        <v>46516</v>
       </c>
       <c r="C130" t="n">
         <v>40.1</v>
@@ -3833,7 +3833,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>46152</v>
+        <v>46517</v>
       </c>
       <c r="C131" t="n">
         <v>40.9</v>
@@ -3859,7 +3859,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>46153</v>
+        <v>46518</v>
       </c>
       <c r="C132" t="n">
         <v>40.3</v>
@@ -3885,7 +3885,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>46154</v>
+        <v>46519</v>
       </c>
       <c r="C133" t="n">
         <v>39.8</v>
@@ -3911,7 +3911,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>46155</v>
+        <v>46520</v>
       </c>
       <c r="C134" t="n">
         <v>39.2</v>
@@ -3937,7 +3937,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>46156</v>
+        <v>46521</v>
       </c>
       <c r="C135" t="n">
         <v>39.6</v>
@@ -3963,7 +3963,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>46157</v>
+        <v>46522</v>
       </c>
       <c r="C136" t="n">
         <v>40.5</v>
@@ -3989,7 +3989,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>46158</v>
+        <v>46523</v>
       </c>
       <c r="C137" t="n">
         <v>40.7</v>
@@ -4015,7 +4015,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>46159</v>
+        <v>46524</v>
       </c>
       <c r="C138" t="n">
         <v>40.7</v>
@@ -4041,7 +4041,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>46160</v>
+        <v>46525</v>
       </c>
       <c r="C139" t="n">
         <v>41.2</v>
@@ -4067,7 +4067,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>46161</v>
+        <v>46526</v>
       </c>
       <c r="C140" t="n">
         <v>41.1</v>
@@ -4093,7 +4093,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>46162</v>
+        <v>46527</v>
       </c>
       <c r="C141" t="n">
         <v>40.7</v>
@@ -4119,7 +4119,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>46163</v>
+        <v>46528</v>
       </c>
       <c r="C142" t="n">
         <v>40.1</v>
@@ -4145,7 +4145,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>46164</v>
+        <v>46529</v>
       </c>
       <c r="C143" t="n">
         <v>39.9</v>
@@ -4171,7 +4171,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>46165</v>
+        <v>46530</v>
       </c>
       <c r="C144" t="n">
         <v>40.1</v>
@@ -4197,7 +4197,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>46166</v>
+        <v>46531</v>
       </c>
       <c r="C145" t="n">
         <v>40.3</v>
@@ -4223,7 +4223,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>46167</v>
+        <v>46532</v>
       </c>
       <c r="C146" t="n">
         <v>41</v>
@@ -4249,7 +4249,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>46168</v>
+        <v>46533</v>
       </c>
       <c r="C147" t="n">
         <v>40.6</v>
@@ -4275,7 +4275,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>46169</v>
+        <v>46534</v>
       </c>
       <c r="C148" t="n">
         <v>40.6</v>
@@ -4301,7 +4301,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>46170</v>
+        <v>46535</v>
       </c>
       <c r="C149" t="n">
         <v>40.2</v>
@@ -4327,7 +4327,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>46171</v>
+        <v>46536</v>
       </c>
       <c r="C150" t="n">
         <v>40.3</v>
@@ -4353,7 +4353,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>46172</v>
+        <v>46537</v>
       </c>
       <c r="C151" t="n">
         <v>40.1</v>
@@ -4379,7 +4379,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>46173</v>
+        <v>46538</v>
       </c>
       <c r="C152" t="n">
         <v>40.7</v>
@@ -4405,7 +4405,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>46174</v>
+        <v>46539</v>
       </c>
       <c r="C153" t="n">
         <v>39.9</v>
@@ -4431,7 +4431,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>46175</v>
+        <v>46540</v>
       </c>
       <c r="C154" t="n">
         <v>40.2</v>
@@ -4457,7 +4457,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>46176</v>
+        <v>46541</v>
       </c>
       <c r="C155" t="n">
         <v>40.2</v>
@@ -4483,7 +4483,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>46177</v>
+        <v>46542</v>
       </c>
       <c r="C156" t="n">
         <v>40.6</v>
@@ -4509,7 +4509,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>46178</v>
+        <v>46543</v>
       </c>
       <c r="C157" t="n">
         <v>40.7</v>
@@ -4535,7 +4535,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>46179</v>
+        <v>46544</v>
       </c>
       <c r="C158" t="n">
         <v>40.1</v>
@@ -4561,7 +4561,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>46180</v>
+        <v>46545</v>
       </c>
       <c r="C159" t="n">
         <v>39.1</v>
@@ -4587,7 +4587,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>46181</v>
+        <v>46546</v>
       </c>
       <c r="C160" t="n">
         <v>39.6</v>
@@ -4613,7 +4613,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>46182</v>
+        <v>46547</v>
       </c>
       <c r="C161" t="n">
         <v>40.2</v>
@@ -4639,7 +4639,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>46183</v>
+        <v>46548</v>
       </c>
       <c r="C162" t="n">
         <v>41</v>
@@ -4665,7 +4665,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>46184</v>
+        <v>46549</v>
       </c>
       <c r="C163" t="n">
         <v>40.8</v>
@@ -4691,7 +4691,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>46185</v>
+        <v>46550</v>
       </c>
       <c r="C164" t="n">
         <v>40</v>
@@ -4717,7 +4717,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>46186</v>
+        <v>46551</v>
       </c>
       <c r="C165" t="n">
         <v>39.7</v>
@@ -4743,7 +4743,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>46187</v>
+        <v>46552</v>
       </c>
       <c r="C166" t="n">
         <v>39.3</v>
@@ -4769,7 +4769,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>46188</v>
+        <v>46553</v>
       </c>
       <c r="C167" t="n">
         <v>39.3</v>
@@ -4795,7 +4795,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>46189</v>
+        <v>46554</v>
       </c>
       <c r="C168" t="n">
         <v>37.6</v>
@@ -4821,7 +4821,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>46190</v>
+        <v>46555</v>
       </c>
       <c r="C169" t="n">
         <v>37.2</v>
@@ -4847,7 +4847,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>46191</v>
+        <v>46556</v>
       </c>
       <c r="C170" t="n">
         <v>37.7</v>
@@ -4873,7 +4873,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>46192</v>
+        <v>46557</v>
       </c>
       <c r="C171" t="n">
         <v>38.7</v>
@@ -4899,7 +4899,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>46193</v>
+        <v>46558</v>
       </c>
       <c r="C172" t="n">
         <v>38.7</v>
@@ -4925,7 +4925,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>46194</v>
+        <v>46559</v>
       </c>
       <c r="C173" t="n">
         <v>38.7</v>
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>46195</v>
+        <v>46560</v>
       </c>
       <c r="C174" t="n">
         <v>39.5</v>
@@ -4977,7 +4977,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>46196</v>
+        <v>46561</v>
       </c>
       <c r="C175" t="n">
         <v>38.8</v>
@@ -5003,7 +5003,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>46197</v>
+        <v>46562</v>
       </c>
       <c r="C176" t="n">
         <v>38.1</v>
@@ -5029,7 +5029,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>46198</v>
+        <v>46563</v>
       </c>
       <c r="C177" t="n">
         <v>37.3</v>
@@ -5055,7 +5055,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>46199</v>
+        <v>46564</v>
       </c>
       <c r="C178" t="n">
         <v>37.5</v>
@@ -5081,7 +5081,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>46200</v>
+        <v>46565</v>
       </c>
       <c r="C179" t="n">
         <v>37.2</v>
@@ -5107,7 +5107,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>46201</v>
+        <v>46566</v>
       </c>
       <c r="C180" t="n">
         <v>36.6</v>
@@ -5133,7 +5133,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>46202</v>
+        <v>46567</v>
       </c>
       <c r="C181" t="n">
         <v>37.4</v>
@@ -5159,7 +5159,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>46203</v>
+        <v>46568</v>
       </c>
       <c r="C182" t="n">
         <v>37.1</v>
@@ -5185,7 +5185,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>46204</v>
+        <v>46569</v>
       </c>
       <c r="C183" t="n">
         <v>37.7</v>
@@ -5211,7 +5211,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>46205</v>
+        <v>46570</v>
       </c>
       <c r="C184" t="n">
         <v>37</v>
@@ -5237,7 +5237,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>46206</v>
+        <v>46571</v>
       </c>
       <c r="C185" t="n">
         <v>36.9</v>
@@ -5263,7 +5263,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>46207</v>
+        <v>46572</v>
       </c>
       <c r="C186" t="n">
         <v>36.8</v>
@@ -5289,7 +5289,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>46208</v>
+        <v>46573</v>
       </c>
       <c r="C187" t="n">
         <v>36.2</v>
@@ -5315,7 +5315,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>46209</v>
+        <v>46574</v>
       </c>
       <c r="C188" t="n">
         <v>35.9</v>
@@ -5341,7 +5341,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>46210</v>
+        <v>46575</v>
       </c>
       <c r="C189" t="n">
         <v>36.2</v>
@@ -5367,7 +5367,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>46211</v>
+        <v>46576</v>
       </c>
       <c r="C190" t="n">
         <v>36.2</v>
@@ -5393,7 +5393,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>46212</v>
+        <v>46577</v>
       </c>
       <c r="C191" t="n">
         <v>36.3</v>
@@ -5419,7 +5419,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>46213</v>
+        <v>46578</v>
       </c>
       <c r="C192" t="n">
         <v>35.9</v>
@@ -5445,7 +5445,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>46214</v>
+        <v>46579</v>
       </c>
       <c r="C193" t="n">
         <v>35.6</v>
@@ -5471,7 +5471,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>46215</v>
+        <v>46580</v>
       </c>
       <c r="C194" t="n">
         <v>34.8</v>
@@ -5497,7 +5497,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>46216</v>
+        <v>46581</v>
       </c>
       <c r="C195" t="n">
         <v>35.3</v>
@@ -5523,7 +5523,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>46217</v>
+        <v>46582</v>
       </c>
       <c r="C196" t="n">
         <v>35.4</v>
@@ -5549,7 +5549,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>46218</v>
+        <v>46583</v>
       </c>
       <c r="C197" t="n">
         <v>35.3</v>
@@ -5575,7 +5575,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>46219</v>
+        <v>46584</v>
       </c>
       <c r="C198" t="n">
         <v>35.5</v>
@@ -5601,7 +5601,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>46220</v>
+        <v>46585</v>
       </c>
       <c r="C199" t="n">
         <v>35</v>
@@ -5627,7 +5627,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>46221</v>
+        <v>46586</v>
       </c>
       <c r="C200" t="n">
         <v>34.7</v>
@@ -5653,7 +5653,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>46222</v>
+        <v>46587</v>
       </c>
       <c r="C201" t="n">
         <v>35.7</v>
@@ -5679,7 +5679,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>46223</v>
+        <v>46588</v>
       </c>
       <c r="C202" t="n">
         <v>34.7</v>
@@ -5705,7 +5705,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>46224</v>
+        <v>46589</v>
       </c>
       <c r="C203" t="n">
         <v>34.8</v>
@@ -5731,7 +5731,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>46225</v>
+        <v>46590</v>
       </c>
       <c r="C204" t="n">
         <v>34.8</v>
@@ -5757,7 +5757,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>46226</v>
+        <v>46591</v>
       </c>
       <c r="C205" t="n">
         <v>34.8</v>
@@ -5783,7 +5783,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>46227</v>
+        <v>46592</v>
       </c>
       <c r="C206" t="n">
         <v>35.3</v>
@@ -5809,7 +5809,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>46228</v>
+        <v>46593</v>
       </c>
       <c r="C207" t="n">
         <v>34.6</v>
@@ -5835,7 +5835,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>46229</v>
+        <v>46594</v>
       </c>
       <c r="C208" t="n">
         <v>34.7</v>
@@ -5861,7 +5861,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>46230</v>
+        <v>46595</v>
       </c>
       <c r="C209" t="n">
         <v>33.9</v>
@@ -5887,7 +5887,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>46231</v>
+        <v>46596</v>
       </c>
       <c r="C210" t="n">
         <v>34</v>
@@ -5913,7 +5913,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>46232</v>
+        <v>46597</v>
       </c>
       <c r="C211" t="n">
         <v>34.3</v>
@@ -5939,7 +5939,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>46233</v>
+        <v>46598</v>
       </c>
       <c r="C212" t="n">
         <v>34.1</v>
@@ -5965,7 +5965,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>46234</v>
+        <v>46599</v>
       </c>
       <c r="C213" t="n">
         <v>33.6</v>
@@ -5991,7 +5991,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>46235</v>
+        <v>46600</v>
       </c>
       <c r="C214" t="n">
         <v>34.2</v>
@@ -6017,7 +6017,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>46236</v>
+        <v>46601</v>
       </c>
       <c r="C215" t="n">
         <v>34.4</v>
@@ -6043,7 +6043,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>46237</v>
+        <v>46602</v>
       </c>
       <c r="C216" t="n">
         <v>34.3</v>
@@ -6069,7 +6069,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>46238</v>
+        <v>46603</v>
       </c>
       <c r="C217" t="n">
         <v>34.7</v>
@@ -6095,7 +6095,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>46239</v>
+        <v>46604</v>
       </c>
       <c r="C218" t="n">
         <v>34.5</v>
@@ -6121,7 +6121,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>46240</v>
+        <v>46605</v>
       </c>
       <c r="C219" t="n">
         <v>33.7</v>
@@ -6147,7 +6147,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>46241</v>
+        <v>46606</v>
       </c>
       <c r="C220" t="n">
         <v>34.5</v>
@@ -6173,7 +6173,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>46242</v>
+        <v>46607</v>
       </c>
       <c r="C221" t="n">
         <v>34.6</v>
@@ -6199,7 +6199,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>46243</v>
+        <v>46608</v>
       </c>
       <c r="C222" t="n">
         <v>34</v>
@@ -6225,7 +6225,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>46244</v>
+        <v>46609</v>
       </c>
       <c r="C223" t="n">
         <v>34.3</v>
@@ -6251,7 +6251,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>46245</v>
+        <v>46610</v>
       </c>
       <c r="C224" t="n">
         <v>34.3</v>
@@ -6277,7 +6277,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>46246</v>
+        <v>46611</v>
       </c>
       <c r="C225" t="n">
         <v>33.9</v>
@@ -6303,7 +6303,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>46247</v>
+        <v>46612</v>
       </c>
       <c r="C226" t="n">
         <v>34.4</v>
@@ -6329,7 +6329,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>46248</v>
+        <v>46613</v>
       </c>
       <c r="C227" t="n">
         <v>33.7</v>
@@ -6355,7 +6355,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>46249</v>
+        <v>46614</v>
       </c>
       <c r="C228" t="n">
         <v>33.6</v>
@@ -6381,7 +6381,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>46250</v>
+        <v>46615</v>
       </c>
       <c r="C229" t="n">
         <v>33.4</v>
@@ -6407,7 +6407,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>46251</v>
+        <v>46616</v>
       </c>
       <c r="C230" t="n">
         <v>34</v>
@@ -6433,7 +6433,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>46252</v>
+        <v>46617</v>
       </c>
       <c r="C231" t="n">
         <v>34.6</v>
@@ -6459,7 +6459,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>46253</v>
+        <v>46618</v>
       </c>
       <c r="C232" t="n">
         <v>33.6</v>
@@ -6485,7 +6485,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>46254</v>
+        <v>46619</v>
       </c>
       <c r="C233" t="n">
         <v>34.7</v>
@@ -6511,7 +6511,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>46255</v>
+        <v>46620</v>
       </c>
       <c r="C234" t="n">
         <v>34.2</v>
@@ -6537,7 +6537,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>46256</v>
+        <v>46621</v>
       </c>
       <c r="C235" t="n">
         <v>34.4</v>
@@ -6563,7 +6563,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>46257</v>
+        <v>46622</v>
       </c>
       <c r="C236" t="n">
         <v>34.4</v>
@@ -6589,7 +6589,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>46258</v>
+        <v>46623</v>
       </c>
       <c r="C237" t="n">
         <v>34.5</v>
@@ -6615,7 +6615,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>46259</v>
+        <v>46624</v>
       </c>
       <c r="C238" t="n">
         <v>34.1</v>
@@ -6641,7 +6641,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>46260</v>
+        <v>46625</v>
       </c>
       <c r="C239" t="n">
         <v>35</v>
@@ -6667,7 +6667,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>46261</v>
+        <v>46626</v>
       </c>
       <c r="C240" t="n">
         <v>35.2</v>
@@ -6693,7 +6693,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>46262</v>
+        <v>46627</v>
       </c>
       <c r="C241" t="n">
         <v>34.9</v>
@@ -6719,7 +6719,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>46263</v>
+        <v>46628</v>
       </c>
       <c r="C242" t="n">
         <v>34.8</v>
@@ -6745,7 +6745,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>46264</v>
+        <v>46629</v>
       </c>
       <c r="C243" t="n">
         <v>34.7</v>
@@ -6771,7 +6771,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>46265</v>
+        <v>46630</v>
       </c>
       <c r="C244" t="n">
         <v>34.4</v>
@@ -6797,7 +6797,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>46266</v>
+        <v>46631</v>
       </c>
       <c r="C245" t="n">
         <v>34.2</v>
@@ -6823,7 +6823,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>46267</v>
+        <v>46632</v>
       </c>
       <c r="C246" t="n">
         <v>34.5</v>
@@ -6849,7 +6849,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>46268</v>
+        <v>46633</v>
       </c>
       <c r="C247" t="n">
         <v>34.5</v>
@@ -6875,7 +6875,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>46269</v>
+        <v>46634</v>
       </c>
       <c r="C248" t="n">
         <v>33.9</v>
@@ -6901,7 +6901,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>46270</v>
+        <v>46635</v>
       </c>
       <c r="C249" t="n">
         <v>34.2</v>
@@ -6927,7 +6927,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>46271</v>
+        <v>46636</v>
       </c>
       <c r="C250" t="n">
         <v>33.4</v>
@@ -6953,7 +6953,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>46272</v>
+        <v>46637</v>
       </c>
       <c r="C251" t="n">
         <v>33.6</v>
@@ -6979,7 +6979,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>46273</v>
+        <v>46638</v>
       </c>
       <c r="C252" t="n">
         <v>34.5</v>
@@ -7005,7 +7005,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>46274</v>
+        <v>46639</v>
       </c>
       <c r="C253" t="n">
         <v>34.3</v>
@@ -7031,7 +7031,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>46275</v>
+        <v>46640</v>
       </c>
       <c r="C254" t="n">
         <v>34.1</v>
@@ -7057,7 +7057,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>46276</v>
+        <v>46641</v>
       </c>
       <c r="C255" t="n">
         <v>33.9</v>
@@ -7083,7 +7083,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>46277</v>
+        <v>46642</v>
       </c>
       <c r="C256" t="n">
         <v>33.8</v>
@@ -7109,7 +7109,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>46278</v>
+        <v>46643</v>
       </c>
       <c r="C257" t="n">
         <v>34.7</v>
@@ -7135,7 +7135,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>46279</v>
+        <v>46644</v>
       </c>
       <c r="C258" t="n">
         <v>34.2</v>
@@ -7161,7 +7161,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>46280</v>
+        <v>46645</v>
       </c>
       <c r="C259" t="n">
         <v>33.9</v>
@@ -7187,7 +7187,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>46281</v>
+        <v>46646</v>
       </c>
       <c r="C260" t="n">
         <v>33.9</v>
@@ -7213,7 +7213,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>46282</v>
+        <v>46647</v>
       </c>
       <c r="C261" t="n">
         <v>34.4</v>
@@ -7239,7 +7239,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>46283</v>
+        <v>46648</v>
       </c>
       <c r="C262" t="n">
         <v>34.5</v>
@@ -7265,7 +7265,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>46284</v>
+        <v>46649</v>
       </c>
       <c r="C263" t="n">
         <v>34.6</v>
@@ -7291,7 +7291,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>46285</v>
+        <v>46650</v>
       </c>
       <c r="C264" t="n">
         <v>34.8</v>
@@ -7317,7 +7317,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>46286</v>
+        <v>46651</v>
       </c>
       <c r="C265" t="n">
         <v>34.3</v>
@@ -7343,7 +7343,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>46287</v>
+        <v>46652</v>
       </c>
       <c r="C266" t="n">
         <v>33.7</v>
@@ -7369,7 +7369,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>46288</v>
+        <v>46653</v>
       </c>
       <c r="C267" t="n">
         <v>33.4</v>
@@ -7395,7 +7395,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>46289</v>
+        <v>46654</v>
       </c>
       <c r="C268" t="n">
         <v>33.8</v>
@@ -7421,7 +7421,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>46290</v>
+        <v>46655</v>
       </c>
       <c r="C269" t="n">
         <v>33.9</v>
@@ -7447,7 +7447,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>46291</v>
+        <v>46656</v>
       </c>
       <c r="C270" t="n">
         <v>34</v>
@@ -7473,7 +7473,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>46292</v>
+        <v>46657</v>
       </c>
       <c r="C271" t="n">
         <v>34.5</v>
@@ -7499,7 +7499,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>46293</v>
+        <v>46658</v>
       </c>
       <c r="C272" t="n">
         <v>35</v>
@@ -7525,7 +7525,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>46294</v>
+        <v>46659</v>
       </c>
       <c r="C273" t="n">
         <v>34.5</v>
@@ -7551,7 +7551,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>46295</v>
+        <v>46660</v>
       </c>
       <c r="C274" t="n">
         <v>34.7</v>
@@ -7577,7 +7577,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>46296</v>
+        <v>46661</v>
       </c>
       <c r="C275" t="n">
         <v>35</v>
@@ -7603,7 +7603,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>46297</v>
+        <v>46662</v>
       </c>
       <c r="C276" t="n">
         <v>34.9</v>
@@ -7629,7 +7629,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>46298</v>
+        <v>46663</v>
       </c>
       <c r="C277" t="n">
         <v>34.8</v>
@@ -7655,7 +7655,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>46299</v>
+        <v>46664</v>
       </c>
       <c r="C278" t="n">
         <v>34.5</v>
@@ -7681,7 +7681,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>46300</v>
+        <v>46665</v>
       </c>
       <c r="C279" t="n">
         <v>34.6</v>
@@ -7707,7 +7707,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>46301</v>
+        <v>46666</v>
       </c>
       <c r="C280" t="n">
         <v>34.6</v>
@@ -7733,7 +7733,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>46302</v>
+        <v>46667</v>
       </c>
       <c r="C281" t="n">
         <v>34.6</v>
@@ -7759,7 +7759,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>46303</v>
+        <v>46668</v>
       </c>
       <c r="C282" t="n">
         <v>34.8</v>
@@ -7785,7 +7785,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>46304</v>
+        <v>46669</v>
       </c>
       <c r="C283" t="n">
         <v>35.2</v>
@@ -7811,7 +7811,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>46305</v>
+        <v>46670</v>
       </c>
       <c r="C284" t="n">
         <v>34.7</v>
@@ -7837,7 +7837,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>46306</v>
+        <v>46671</v>
       </c>
       <c r="C285" t="n">
         <v>33.7</v>
@@ -7863,7 +7863,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>46307</v>
+        <v>46672</v>
       </c>
       <c r="C286" t="n">
         <v>33.8</v>
@@ -7889,7 +7889,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>46308</v>
+        <v>46673</v>
       </c>
       <c r="C287" t="n">
         <v>33.7</v>
@@ -7915,7 +7915,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>46309</v>
+        <v>46674</v>
       </c>
       <c r="C288" t="n">
         <v>33.6</v>
@@ -7941,7 +7941,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>46310</v>
+        <v>46675</v>
       </c>
       <c r="C289" t="n">
         <v>33.4</v>
@@ -7967,7 +7967,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>46311</v>
+        <v>46676</v>
       </c>
       <c r="C290" t="n">
         <v>33</v>
@@ -7993,7 +7993,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>46312</v>
+        <v>46677</v>
       </c>
       <c r="C291" t="n">
         <v>33.1</v>
@@ -8019,7 +8019,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>46313</v>
+        <v>46678</v>
       </c>
       <c r="C292" t="n">
         <v>33.2</v>
@@ -8045,7 +8045,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>46314</v>
+        <v>46679</v>
       </c>
       <c r="C293" t="n">
         <v>33.2</v>
@@ -8071,7 +8071,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>46315</v>
+        <v>46680</v>
       </c>
       <c r="C294" t="n">
         <v>33.2</v>
@@ -8097,7 +8097,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>46316</v>
+        <v>46681</v>
       </c>
       <c r="C295" t="n">
         <v>32.7</v>
@@ -8123,7 +8123,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>46317</v>
+        <v>46682</v>
       </c>
       <c r="C296" t="n">
         <v>32.7</v>
@@ -8149,7 +8149,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>46318</v>
+        <v>46683</v>
       </c>
       <c r="C297" t="n">
         <v>32.4</v>
@@ -8175,7 +8175,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>46319</v>
+        <v>46684</v>
       </c>
       <c r="C298" t="n">
         <v>32</v>
@@ -8201,7 +8201,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>46320</v>
+        <v>46685</v>
       </c>
       <c r="C299" t="n">
         <v>31.8</v>
@@ -8227,7 +8227,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>46321</v>
+        <v>46686</v>
       </c>
       <c r="C300" t="n">
         <v>31.5</v>
@@ -8253,7 +8253,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>46322</v>
+        <v>46687</v>
       </c>
       <c r="C301" t="n">
         <v>31.7</v>
@@ -8279,7 +8279,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>46323</v>
+        <v>46688</v>
       </c>
       <c r="C302" t="n">
         <v>31.2</v>
@@ -8305,7 +8305,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>46324</v>
+        <v>46689</v>
       </c>
       <c r="C303" t="n">
         <v>31.3</v>
@@ -8331,7 +8331,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>46325</v>
+        <v>46690</v>
       </c>
       <c r="C304" t="n">
         <v>31.5</v>
@@ -8357,7 +8357,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>46326</v>
+        <v>46691</v>
       </c>
       <c r="C305" t="n">
         <v>31.2</v>
@@ -8383,7 +8383,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>46327</v>
+        <v>46692</v>
       </c>
       <c r="C306" t="n">
         <v>31.1</v>
@@ -8409,7 +8409,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>46328</v>
+        <v>46693</v>
       </c>
       <c r="C307" t="n">
         <v>30.7</v>
@@ -8435,7 +8435,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>46329</v>
+        <v>46694</v>
       </c>
       <c r="C308" t="n">
         <v>30.6</v>
@@ -8461,7 +8461,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>46330</v>
+        <v>46695</v>
       </c>
       <c r="C309" t="n">
         <v>30.5</v>
@@ -8487,7 +8487,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>46331</v>
+        <v>46696</v>
       </c>
       <c r="C310" t="n">
         <v>29.8</v>
@@ -8513,7 +8513,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>46332</v>
+        <v>46697</v>
       </c>
       <c r="C311" t="n">
         <v>30.2</v>
@@ -8539,7 +8539,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>46333</v>
+        <v>46698</v>
       </c>
       <c r="C312" t="n">
         <v>29.6</v>
@@ -8565,7 +8565,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>46334</v>
+        <v>46699</v>
       </c>
       <c r="C313" t="n">
         <v>29</v>
@@ -8591,7 +8591,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>46335</v>
+        <v>46700</v>
       </c>
       <c r="C314" t="n">
         <v>29.7</v>
@@ -8617,7 +8617,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>46336</v>
+        <v>46701</v>
       </c>
       <c r="C315" t="n">
         <v>29.3</v>
@@ -8643,7 +8643,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>46337</v>
+        <v>46702</v>
       </c>
       <c r="C316" t="n">
         <v>29.3</v>
@@ -8669,7 +8669,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>46338</v>
+        <v>46703</v>
       </c>
       <c r="C317" t="n">
         <v>28.6</v>
@@ -8695,7 +8695,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>46339</v>
+        <v>46704</v>
       </c>
       <c r="C318" t="n">
         <v>28.4</v>
@@ -8721,7 +8721,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>46340</v>
+        <v>46705</v>
       </c>
       <c r="C319" t="n">
         <v>28.5</v>
@@ -8747,7 +8747,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>46341</v>
+        <v>46706</v>
       </c>
       <c r="C320" t="n">
         <v>28.4</v>
@@ -8773,7 +8773,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>46342</v>
+        <v>46707</v>
       </c>
       <c r="C321" t="n">
         <v>28.1</v>
@@ -8799,7 +8799,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>46343</v>
+        <v>46708</v>
       </c>
       <c r="C322" t="n">
         <v>27.9</v>
@@ -8825,7 +8825,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>46344</v>
+        <v>46709</v>
       </c>
       <c r="C323" t="n">
         <v>27.9</v>
@@ -8851,7 +8851,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>46345</v>
+        <v>46710</v>
       </c>
       <c r="C324" t="n">
         <v>27.4</v>
@@ -8877,7 +8877,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>46346</v>
+        <v>46711</v>
       </c>
       <c r="C325" t="n">
         <v>27</v>
@@ -8903,7 +8903,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>46347</v>
+        <v>46712</v>
       </c>
       <c r="C326" t="n">
         <v>27.4</v>
@@ -8929,7 +8929,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>46348</v>
+        <v>46713</v>
       </c>
       <c r="C327" t="n">
         <v>27.3</v>
@@ -8955,7 +8955,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>46349</v>
+        <v>46714</v>
       </c>
       <c r="C328" t="n">
         <v>27.3</v>
@@ -8981,7 +8981,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>46350</v>
+        <v>46715</v>
       </c>
       <c r="C329" t="n">
         <v>26.1</v>
@@ -9007,7 +9007,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>46351</v>
+        <v>46716</v>
       </c>
       <c r="C330" t="n">
         <v>26.8</v>
@@ -9033,7 +9033,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>46352</v>
+        <v>46717</v>
       </c>
       <c r="C331" t="n">
         <v>27</v>
@@ -9059,7 +9059,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>46353</v>
+        <v>46718</v>
       </c>
       <c r="C332" t="n">
         <v>25.9</v>
@@ -9085,7 +9085,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>46354</v>
+        <v>46719</v>
       </c>
       <c r="C333" t="n">
         <v>26</v>
@@ -9111,7 +9111,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>46355</v>
+        <v>46720</v>
       </c>
       <c r="C334" t="n">
         <v>26</v>
@@ -9137,7 +9137,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>46356</v>
+        <v>46721</v>
       </c>
       <c r="C335" t="n">
         <v>25.3</v>
@@ -9163,7 +9163,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>46357</v>
+        <v>46722</v>
       </c>
       <c r="C336" t="n">
         <v>25.6</v>
@@ -9189,7 +9189,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>46358</v>
+        <v>46723</v>
       </c>
       <c r="C337" t="n">
         <v>25.4</v>
@@ -9215,7 +9215,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>46359</v>
+        <v>46724</v>
       </c>
       <c r="C338" t="n">
         <v>25.2</v>
@@ -9241,7 +9241,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>46360</v>
+        <v>46725</v>
       </c>
       <c r="C339" t="n">
         <v>25.2</v>
@@ -9267,7 +9267,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>46361</v>
+        <v>46726</v>
       </c>
       <c r="C340" t="n">
         <v>25.3</v>
@@ -9293,7 +9293,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>46362</v>
+        <v>46727</v>
       </c>
       <c r="C341" t="n">
         <v>25.3</v>
@@ -9319,7 +9319,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>46363</v>
+        <v>46728</v>
       </c>
       <c r="C342" t="n">
         <v>24.7</v>
@@ -9345,7 +9345,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>46364</v>
+        <v>46729</v>
       </c>
       <c r="C343" t="n">
         <v>24.7</v>
@@ -9371,7 +9371,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>46365</v>
+        <v>46730</v>
       </c>
       <c r="C344" t="n">
         <v>24.3</v>
@@ -9397,7 +9397,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>46366</v>
+        <v>46731</v>
       </c>
       <c r="C345" t="n">
         <v>23.8</v>
@@ -9423,7 +9423,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>46367</v>
+        <v>46732</v>
       </c>
       <c r="C346" t="n">
         <v>23</v>
@@ -9449,7 +9449,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>46368</v>
+        <v>46733</v>
       </c>
       <c r="C347" t="n">
         <v>23.1</v>
@@ -9475,7 +9475,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>46369</v>
+        <v>46734</v>
       </c>
       <c r="C348" t="n">
         <v>22.4</v>
@@ -9501,7 +9501,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>46370</v>
+        <v>46735</v>
       </c>
       <c r="C349" t="n">
         <v>22.4</v>
@@ -9527,7 +9527,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>46371</v>
+        <v>46736</v>
       </c>
       <c r="C350" t="n">
         <v>22.8</v>
@@ -9553,7 +9553,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>46372</v>
+        <v>46737</v>
       </c>
       <c r="C351" t="n">
         <v>22.7</v>
@@ -9579,7 +9579,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>46373</v>
+        <v>46738</v>
       </c>
       <c r="C352" t="n">
         <v>22.5</v>
@@ -9605,7 +9605,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>46374</v>
+        <v>46739</v>
       </c>
       <c r="C353" t="n">
         <v>22.6</v>
@@ -9631,7 +9631,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>46375</v>
+        <v>46740</v>
       </c>
       <c r="C354" t="n">
         <v>21.7</v>
@@ -9657,7 +9657,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>46376</v>
+        <v>46741</v>
       </c>
       <c r="C355" t="n">
         <v>21.1</v>
@@ -9683,7 +9683,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>46377</v>
+        <v>46742</v>
       </c>
       <c r="C356" t="n">
         <v>21.3</v>
@@ -9709,7 +9709,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>46378</v>
+        <v>46743</v>
       </c>
       <c r="C357" t="n">
         <v>21.1</v>
@@ -9735,7 +9735,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>46379</v>
+        <v>46744</v>
       </c>
       <c r="C358" t="n">
         <v>20.2</v>
@@ -9761,7 +9761,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>46380</v>
+        <v>46745</v>
       </c>
       <c r="C359" t="n">
         <v>20.3</v>
@@ -9787,7 +9787,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>46381</v>
+        <v>46746</v>
       </c>
       <c r="C360" t="n">
         <v>19.5</v>
@@ -9813,7 +9813,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>46382</v>
+        <v>46747</v>
       </c>
       <c r="C361" t="n">
         <v>20</v>
@@ -9839,7 +9839,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>46383</v>
+        <v>46748</v>
       </c>
       <c r="C362" t="n">
         <v>20.7</v>
@@ -9865,7 +9865,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>46384</v>
+        <v>46749</v>
       </c>
       <c r="C363" t="n">
         <v>20.5</v>
@@ -9891,7 +9891,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>46385</v>
+        <v>46750</v>
       </c>
       <c r="C364" t="n">
         <v>20.6</v>
@@ -9917,7 +9917,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>46386</v>
+        <v>46751</v>
       </c>
       <c r="C365" t="n">
         <v>19.6</v>
@@ -9943,7 +9943,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>46387</v>
+        <v>46752</v>
       </c>
       <c r="C366" t="n">
         <v>19</v>
